--- a/part.xlsx
+++ b/part.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5502027\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFAFE47-41FF-4D46-BEBD-3A9F9A3C4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC2782-BBAE-4725-97D5-93DBCADF77E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{F99FC48C-34FE-434E-80D7-4E5AAE265EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$929:$B$936</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1890">
   <si>
     <t>자재번호</t>
   </si>
@@ -5622,6 +5625,138 @@
   </si>
   <si>
     <t>2-7  4단6열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13510-1030B</t>
+  </si>
+  <si>
+    <t>11641-08226B</t>
+  </si>
+  <si>
+    <t>12202-04103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12310-04123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12434-05163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12438-05253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12441-06201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12442-06167B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단5열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단6열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 5단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 5단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 5단3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11230-08146B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11278-06161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13256-14007K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13271-06001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13376-06007K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13395-06001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13396-08001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13514-08267K</t>
+  </si>
+  <si>
+    <t>14720-06803</t>
+  </si>
+  <si>
+    <t>3-5 5단4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 5단5열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 5단6열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단5열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단6열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5632,7 +5767,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5648,8 +5783,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Modern H Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5671,6 +5813,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5728,7 +5876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5760,6 +5908,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6107,10 +6264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD56D84-AAB8-4F28-8C6E-523199CE1743}">
-  <dimension ref="A1:B928"/>
+  <dimension ref="A1:B945"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D621" sqref="D621"/>
+    <sheetView tabSelected="1" topLeftCell="A912" workbookViewId="0">
+      <selection activeCell="A940" sqref="A940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13543,6 +13700,142 @@
         <v>1846</v>
       </c>
     </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" s="11" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B929" s="9" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" s="12" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B930" s="9" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" s="13" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B931" s="9" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B932" s="9" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" s="13" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B933" s="9" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" s="13" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B934" s="9" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" s="13" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B935" s="9" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B936" s="9" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" s="13" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B937" s="9" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B938" s="9" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" s="13" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B939" s="9" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" s="13" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B940" s="9" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B941" s="9" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" s="13" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B942" s="9" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" s="13" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B943" s="9" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B944" s="9" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" s="13" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B945" s="9" t="s">
+        <v>1889</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:B926 A927:A928">

--- a/part.xlsx
+++ b/part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5502027\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\업무\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA070E5C-5AF6-4A82-8D56-2697188EF230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615AF0E-62CA-43C4-8585-78B64DD7CFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{F99FC48C-34FE-434E-80D7-4E5AAE265EBA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F99FC48C-34FE-434E-80D7-4E5AAE265EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1910">
   <si>
     <t>자재번호</t>
   </si>
@@ -5744,6 +5744,102 @@
   </si>
   <si>
     <t>1-10  2단5열</t>
+  </si>
+  <si>
+    <t>11234-12453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13504-14356k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11251-12353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10141-10303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10188-05203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11250-06351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12438-06161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11995-14507k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12414-04302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12438-04163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13508-0800b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11233-12301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시1 2단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 2단6열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시2 4단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시1 3단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시2 3단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 6단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 4단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 1단6열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 1단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5 1단3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시1 1단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5753,7 +5849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5775,6 +5871,12 @@
       <name val="Modern H Medium"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5838,7 +5940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5867,6 +5969,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6214,9 +6322,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD56D84-AAB8-4F28-8C6E-523199CE1743}">
-  <dimension ref="A1:B943"/>
+  <dimension ref="A1:G955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
+      <selection activeCell="J923" sqref="J923"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13768,10 +13878,107 @@
         <v>1850</v>
       </c>
     </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" s="11" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945" s="11" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946" s="11" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B946" s="3" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947" s="11" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B947" s="3" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948" s="11" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G948" s="10"/>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949" s="11" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950" s="11" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B950" s="3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951" s="11" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952" s="11" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B952" s="3" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953" s="11" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954" s="11" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955" s="11" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>1909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A955">
+    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/part.xlsx
+++ b/part.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\업무\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\Hyundai Motor and Kia\업무\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615AF0E-62CA-43C4-8585-78B64DD7CFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959674B2-4D07-47D2-BB25-FFAF1B73F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F99FC48C-34FE-434E-80D7-4E5AAE265EBA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1916">
   <si>
     <t>자재번호</t>
   </si>
@@ -1966,9 +1966,6 @@
     <t>12213-06203</t>
   </si>
   <si>
-    <t>12230-05162</t>
-  </si>
-  <si>
     <t>12230-05163</t>
   </si>
   <si>
@@ -2183,9 +2180,6 @@
   </si>
   <si>
     <t>12492-05167B</t>
-  </si>
-  <si>
-    <t>12492-05167K</t>
   </si>
   <si>
     <t>12492-06203</t>
@@ -5839,6 +5833,38 @@
   </si>
   <si>
     <t>임시1 1단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12438-05203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시2 2단1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12291-05161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시2 1단2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13469-16003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시1 4단 2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12230-05161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11703-05101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5940,7 +5966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5973,9 +5999,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6322,10 +6345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD56D84-AAB8-4F28-8C6E-523199CE1743}">
-  <dimension ref="A1:G955"/>
+  <dimension ref="A1:G958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
-      <selection activeCell="J923" sqref="J923"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="N632" sqref="N632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6347,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6355,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6363,7 +6386,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6371,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6379,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6387,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6395,7 +6418,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6403,7 +6426,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6411,7 +6434,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6419,7 +6442,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6427,7 +6450,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6435,7 +6458,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6443,7 +6466,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6451,7 +6474,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6459,7 +6482,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6467,7 +6490,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6475,7 +6498,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6483,7 +6506,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6491,7 +6514,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -6499,7 +6522,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6507,7 +6530,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -6515,7 +6538,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6523,7 +6546,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -6531,7 +6554,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6539,7 +6562,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -6547,7 +6570,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6555,7 +6578,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6563,7 +6586,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6571,7 +6594,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6579,7 +6602,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6587,7 +6610,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6595,7 +6618,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6603,7 +6626,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6611,7 +6634,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6619,7 +6642,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6627,7 +6650,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6635,7 +6658,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6643,7 +6666,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6651,7 +6674,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6659,7 +6682,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6667,7 +6690,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6675,7 +6698,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6683,7 +6706,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6691,7 +6714,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6699,7 +6722,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6707,7 +6730,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6715,7 +6738,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6723,7 +6746,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6731,7 +6754,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6739,7 +6762,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6747,7 +6770,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6755,7 +6778,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6763,7 +6786,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6771,7 +6794,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6779,7 +6802,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6787,7 +6810,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6795,7 +6818,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6803,7 +6826,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6811,7 +6834,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6819,7 +6842,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6827,7 +6850,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6835,7 +6858,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6843,7 +6866,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6851,7 +6874,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6859,7 +6882,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6867,7 +6890,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6875,7 +6898,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6883,7 +6906,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6891,7 +6914,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6899,7 +6922,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6907,7 +6930,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6915,7 +6938,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6923,7 +6946,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -6931,7 +6954,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -6939,7 +6962,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -6947,7 +6970,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -6955,7 +6978,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -6963,7 +6986,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -6971,7 +6994,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -6979,7 +7002,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -6987,7 +7010,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -6995,7 +7018,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -7003,7 +7026,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -7011,7 +7034,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -7019,7 +7042,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -7027,7 +7050,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -7035,7 +7058,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -7043,7 +7066,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -7051,7 +7074,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -7059,7 +7082,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -7067,7 +7090,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -7075,7 +7098,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -7083,7 +7106,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -7091,7 +7114,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -7099,7 +7122,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -7107,7 +7130,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -7115,7 +7138,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -7123,7 +7146,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -7131,7 +7154,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -7139,7 +7162,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -7147,7 +7170,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -7155,7 +7178,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -7163,7 +7186,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -7171,7 +7194,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -7179,7 +7202,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -7187,7 +7210,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -7195,7 +7218,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -7203,7 +7226,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -7211,7 +7234,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -7219,7 +7242,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -7227,7 +7250,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -7235,7 +7258,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -7243,7 +7266,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -7251,7 +7274,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -7259,7 +7282,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -7267,7 +7290,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -7275,7 +7298,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -7283,7 +7306,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -7291,7 +7314,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -7299,7 +7322,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -7307,7 +7330,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -7315,7 +7338,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -7323,7 +7346,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -7331,7 +7354,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -7339,7 +7362,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -7347,7 +7370,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -7355,7 +7378,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -7363,7 +7386,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -7371,7 +7394,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -7379,7 +7402,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -7387,7 +7410,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -7395,7 +7418,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -7403,7 +7426,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -7411,7 +7434,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -7419,7 +7442,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -7427,7 +7450,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -7435,7 +7458,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -7443,7 +7466,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -7451,7 +7474,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -7459,7 +7482,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -7467,7 +7490,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -7475,7 +7498,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -7483,7 +7506,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -7491,7 +7514,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -7499,7 +7522,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -7507,7 +7530,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -7515,7 +7538,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -7523,7 +7546,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -7531,7 +7554,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -7539,7 +7562,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -7547,7 +7570,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -7555,7 +7578,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -7563,7 +7586,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -7571,7 +7594,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -7579,7 +7602,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -7587,7 +7610,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -7595,7 +7618,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -7603,7 +7626,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -7611,7 +7634,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -7619,7 +7642,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -7627,7 +7650,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -7635,7 +7658,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -7643,7 +7666,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -7651,7 +7674,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -7659,7 +7682,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -7667,7 +7690,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -7675,7 +7698,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -7683,7 +7706,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -7691,7 +7714,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -7699,7 +7722,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -7707,7 +7730,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -7715,7 +7738,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -7723,7 +7746,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -7731,7 +7754,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -7739,7 +7762,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -7747,7 +7770,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -7755,7 +7778,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -7763,7 +7786,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -7771,7 +7794,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -7779,7 +7802,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -7787,7 +7810,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -7795,7 +7818,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -7803,7 +7826,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -7811,7 +7834,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -7819,7 +7842,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -7827,7 +7850,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -7835,7 +7858,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -7843,7 +7866,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -7851,7 +7874,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -7859,7 +7882,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -7867,7 +7890,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -7875,7 +7898,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -7883,7 +7906,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -7891,7 +7914,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -7899,7 +7922,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -7907,7 +7930,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -7915,7 +7938,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -7923,7 +7946,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -7931,7 +7954,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -7939,7 +7962,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -7947,7 +7970,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -7955,7 +7978,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -7963,7 +7986,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -7971,7 +7994,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -7979,7 +8002,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -7987,7 +8010,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -7995,7 +8018,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -8003,7 +8026,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -8011,7 +8034,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -8019,7 +8042,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -8027,7 +8050,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -8035,7 +8058,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -8043,7 +8066,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -8051,7 +8074,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -8059,7 +8082,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -8067,7 +8090,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -8075,7 +8098,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -8083,7 +8106,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -8091,7 +8114,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -8099,7 +8122,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -8107,7 +8130,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -8115,7 +8138,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -8123,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -8131,7 +8154,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -8139,7 +8162,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -8147,7 +8170,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -8155,7 +8178,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -8163,7 +8186,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -8171,7 +8194,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -8179,7 +8202,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -8187,7 +8210,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -8195,7 +8218,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -8203,7 +8226,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -8211,7 +8234,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -8219,7 +8242,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -8227,7 +8250,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -8235,7 +8258,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -8243,7 +8266,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -8251,7 +8274,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -8259,7 +8282,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -8267,7 +8290,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -8275,7 +8298,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -8283,7 +8306,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -8291,7 +8314,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -8299,7 +8322,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -8307,7 +8330,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -8315,7 +8338,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -8323,7 +8346,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -8331,7 +8354,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -8339,7 +8362,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -8347,7 +8370,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -8355,7 +8378,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -8363,7 +8386,7 @@
         <v>334</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -8371,7 +8394,7 @@
         <v>335</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -8379,7 +8402,7 @@
         <v>336</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -8387,7 +8410,7 @@
         <v>337</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -8395,7 +8418,7 @@
         <v>338</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -8403,7 +8426,7 @@
         <v>339</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -8411,7 +8434,7 @@
         <v>340</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -8419,7 +8442,7 @@
         <v>341</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -8427,7 +8450,7 @@
         <v>342</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -8435,7 +8458,7 @@
         <v>343</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -8443,7 +8466,7 @@
         <v>344</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -8451,7 +8474,7 @@
         <v>345</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -8459,7 +8482,7 @@
         <v>346</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -8467,7 +8490,7 @@
         <v>347</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -8475,7 +8498,7 @@
         <v>348</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -8483,7 +8506,7 @@
         <v>349</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -8491,7 +8514,7 @@
         <v>350</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -8499,7 +8522,7 @@
         <v>351</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -8507,7 +8530,7 @@
         <v>352</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -8515,7 +8538,7 @@
         <v>353</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -8523,7 +8546,7 @@
         <v>354</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -8531,7 +8554,7 @@
         <v>355</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -8539,7 +8562,7 @@
         <v>356</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -8547,7 +8570,7 @@
         <v>357</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -8555,7 +8578,7 @@
         <v>358</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -8563,7 +8586,7 @@
         <v>359</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -8571,7 +8594,7 @@
         <v>360</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -8579,7 +8602,7 @@
         <v>361</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -8587,7 +8610,7 @@
         <v>362</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -8595,7 +8618,7 @@
         <v>363</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -8603,7 +8626,7 @@
         <v>364</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -8611,7 +8634,7 @@
         <v>365</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -8619,7 +8642,7 @@
         <v>366</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -8627,7 +8650,7 @@
         <v>367</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -8635,7 +8658,7 @@
         <v>368</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -8643,7 +8666,7 @@
         <v>369</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -8651,7 +8674,7 @@
         <v>370</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -8659,7 +8682,7 @@
         <v>371</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -8667,7 +8690,7 @@
         <v>372</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -8675,7 +8698,7 @@
         <v>373</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -8683,7 +8706,7 @@
         <v>374</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -8691,7 +8714,7 @@
         <v>375</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -8699,7 +8722,7 @@
         <v>376</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -8707,7 +8730,7 @@
         <v>377</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -8715,7 +8738,7 @@
         <v>378</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -8723,7 +8746,7 @@
         <v>379</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -8731,7 +8754,7 @@
         <v>380</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -8739,7 +8762,7 @@
         <v>381</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -8747,7 +8770,7 @@
         <v>382</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -8755,7 +8778,7 @@
         <v>383</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -8763,7 +8786,7 @@
         <v>384</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -8771,7 +8794,7 @@
         <v>385</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -8779,7 +8802,7 @@
         <v>386</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -8787,7 +8810,7 @@
         <v>387</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -8795,7 +8818,7 @@
         <v>388</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -8803,7 +8826,7 @@
         <v>389</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -8811,7 +8834,7 @@
         <v>390</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -8819,7 +8842,7 @@
         <v>391</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -8827,7 +8850,7 @@
         <v>392</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -8835,7 +8858,7 @@
         <v>393</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -8843,7 +8866,7 @@
         <v>394</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -8851,7 +8874,7 @@
         <v>395</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -8859,7 +8882,7 @@
         <v>396</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -8867,7 +8890,7 @@
         <v>397</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -8875,7 +8898,7 @@
         <v>398</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -8883,7 +8906,7 @@
         <v>399</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -8891,7 +8914,7 @@
         <v>400</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -8899,7 +8922,7 @@
         <v>401</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -8907,7 +8930,7 @@
         <v>402</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -8915,7 +8938,7 @@
         <v>403</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -8923,7 +8946,7 @@
         <v>404</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -8931,7 +8954,7 @@
         <v>405</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -8939,7 +8962,7 @@
         <v>406</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -8947,7 +8970,7 @@
         <v>407</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -8955,7 +8978,7 @@
         <v>408</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -8963,7 +8986,7 @@
         <v>409</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -8971,7 +8994,7 @@
         <v>410</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -8979,7 +9002,7 @@
         <v>411</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -8987,7 +9010,7 @@
         <v>412</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -8995,7 +9018,7 @@
         <v>413</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -9003,7 +9026,7 @@
         <v>414</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -9011,7 +9034,7 @@
         <v>415</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -9019,7 +9042,7 @@
         <v>416</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -9027,7 +9050,7 @@
         <v>417</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -9035,7 +9058,7 @@
         <v>418</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -9043,7 +9066,7 @@
         <v>419</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -9051,7 +9074,7 @@
         <v>420</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -9059,7 +9082,7 @@
         <v>421</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -9067,7 +9090,7 @@
         <v>422</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -9075,7 +9098,7 @@
         <v>423</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -9083,7 +9106,7 @@
         <v>424</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -9091,7 +9114,7 @@
         <v>425</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -9099,7 +9122,7 @@
         <v>426</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -9107,7 +9130,7 @@
         <v>427</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -9115,7 +9138,7 @@
         <v>428</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -9123,7 +9146,7 @@
         <v>429</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -9131,7 +9154,7 @@
         <v>430</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -9139,7 +9162,7 @@
         <v>431</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -9147,7 +9170,7 @@
         <v>432</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -9155,7 +9178,7 @@
         <v>433</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -9163,7 +9186,7 @@
         <v>434</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -9171,7 +9194,7 @@
         <v>435</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -9179,7 +9202,7 @@
         <v>436</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -9187,7 +9210,7 @@
         <v>437</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -9195,7 +9218,7 @@
         <v>438</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -9203,7 +9226,7 @@
         <v>439</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -9211,7 +9234,7 @@
         <v>440</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -9219,7 +9242,7 @@
         <v>441</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -9227,7 +9250,7 @@
         <v>442</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -9235,7 +9258,7 @@
         <v>443</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -9243,7 +9266,7 @@
         <v>444</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -9251,7 +9274,7 @@
         <v>445</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -9259,7 +9282,7 @@
         <v>446</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -9267,7 +9290,7 @@
         <v>447</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -9275,7 +9298,7 @@
         <v>448</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -9283,7 +9306,7 @@
         <v>449</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -9291,7 +9314,7 @@
         <v>450</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -9299,7 +9322,7 @@
         <v>451</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -9307,7 +9330,7 @@
         <v>452</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -9315,7 +9338,7 @@
         <v>453</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -9323,7 +9346,7 @@
         <v>454</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -9331,7 +9354,7 @@
         <v>455</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -9339,7 +9362,7 @@
         <v>456</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -9347,7 +9370,7 @@
         <v>457</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -9355,7 +9378,7 @@
         <v>458</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -9363,7 +9386,7 @@
         <v>459</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -9371,7 +9394,7 @@
         <v>460</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -9379,7 +9402,7 @@
         <v>461</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -9387,7 +9410,7 @@
         <v>462</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -9395,7 +9418,7 @@
         <v>463</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -9403,7 +9426,7 @@
         <v>464</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -9411,7 +9434,7 @@
         <v>465</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -9419,7 +9442,7 @@
         <v>466</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -9427,7 +9450,7 @@
         <v>467</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -9435,7 +9458,7 @@
         <v>468</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -9443,7 +9466,7 @@
         <v>469</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -9451,7 +9474,7 @@
         <v>470</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -9459,7 +9482,7 @@
         <v>471</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -9467,7 +9490,7 @@
         <v>472</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -9475,7 +9498,7 @@
         <v>473</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -9483,7 +9506,7 @@
         <v>474</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -9491,7 +9514,7 @@
         <v>475</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -9499,7 +9522,7 @@
         <v>476</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -9507,7 +9530,7 @@
         <v>477</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -9515,7 +9538,7 @@
         <v>478</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -9523,7 +9546,7 @@
         <v>479</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -9531,7 +9554,7 @@
         <v>480</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -9539,7 +9562,7 @@
         <v>481</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -9547,7 +9570,7 @@
         <v>482</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -9555,7 +9578,7 @@
         <v>483</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -9563,7 +9586,7 @@
         <v>484</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -9571,7 +9594,7 @@
         <v>485</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -9579,7 +9602,7 @@
         <v>486</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -9587,7 +9610,7 @@
         <v>487</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -9595,7 +9618,7 @@
         <v>488</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -9603,7 +9626,7 @@
         <v>489</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -9611,7 +9634,7 @@
         <v>490</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -9619,7 +9642,7 @@
         <v>491</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -9627,7 +9650,7 @@
         <v>492</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -9635,7 +9658,7 @@
         <v>493</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -9643,7 +9666,7 @@
         <v>494</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -9651,7 +9674,7 @@
         <v>495</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -9659,7 +9682,7 @@
         <v>496</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -9667,7 +9690,7 @@
         <v>497</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -9675,7 +9698,7 @@
         <v>498</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -9683,7 +9706,7 @@
         <v>499</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -9691,7 +9714,7 @@
         <v>500</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -9699,7 +9722,7 @@
         <v>501</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -9707,7 +9730,7 @@
         <v>502</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -9715,7 +9738,7 @@
         <v>503</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -9723,7 +9746,7 @@
         <v>504</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -9731,7 +9754,7 @@
         <v>505</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -9739,7 +9762,7 @@
         <v>506</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -9747,7 +9770,7 @@
         <v>507</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -9755,7 +9778,7 @@
         <v>508</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -9763,7 +9786,7 @@
         <v>509</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -9771,7 +9794,7 @@
         <v>510</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -9779,7 +9802,7 @@
         <v>511</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -9787,7 +9810,7 @@
         <v>512</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -9795,7 +9818,7 @@
         <v>513</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -9803,7 +9826,7 @@
         <v>514</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -9811,7 +9834,7 @@
         <v>515</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -9819,7 +9842,7 @@
         <v>516</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -9827,7 +9850,7 @@
         <v>517</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -9835,7 +9858,7 @@
         <v>518</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -9843,7 +9866,7 @@
         <v>519</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -9851,7 +9874,7 @@
         <v>520</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -9859,7 +9882,7 @@
         <v>521</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -9867,7 +9890,7 @@
         <v>522</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -9875,7 +9898,7 @@
         <v>523</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -9883,7 +9906,7 @@
         <v>524</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -9891,7 +9914,7 @@
         <v>525</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -9899,7 +9922,7 @@
         <v>526</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -9907,7 +9930,7 @@
         <v>527</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -9915,7 +9938,7 @@
         <v>528</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -9923,7 +9946,7 @@
         <v>529</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -9931,7 +9954,7 @@
         <v>530</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -9939,7 +9962,7 @@
         <v>531</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -9947,7 +9970,7 @@
         <v>532</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -9955,7 +9978,7 @@
         <v>533</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -9963,7 +9986,7 @@
         <v>534</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -9971,7 +9994,7 @@
         <v>535</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -9979,7 +10002,7 @@
         <v>536</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -9987,7 +10010,7 @@
         <v>537</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -9995,7 +10018,7 @@
         <v>538</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -10003,7 +10026,7 @@
         <v>539</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -10011,7 +10034,7 @@
         <v>540</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -10019,7 +10042,7 @@
         <v>541</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -10027,7 +10050,7 @@
         <v>542</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -10035,7 +10058,7 @@
         <v>543</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -10043,7 +10066,7 @@
         <v>544</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -10051,7 +10074,7 @@
         <v>545</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -10059,7 +10082,7 @@
         <v>546</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -10067,7 +10090,7 @@
         <v>547</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -10075,7 +10098,7 @@
         <v>548</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -10083,7 +10106,7 @@
         <v>549</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -10091,7 +10114,7 @@
         <v>550</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -10099,7 +10122,7 @@
         <v>551</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -10107,7 +10130,7 @@
         <v>552</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -10115,7 +10138,7 @@
         <v>553</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -10123,7 +10146,7 @@
         <v>554</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -10131,7 +10154,7 @@
         <v>555</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -10139,7 +10162,7 @@
         <v>556</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -10147,7 +10170,7 @@
         <v>557</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -10155,7 +10178,7 @@
         <v>558</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -10163,7 +10186,7 @@
         <v>559</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -10171,7 +10194,7 @@
         <v>560</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -10179,7 +10202,7 @@
         <v>561</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -10187,7 +10210,7 @@
         <v>562</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -10195,7 +10218,7 @@
         <v>563</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -10203,7 +10226,7 @@
         <v>564</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -10211,7 +10234,7 @@
         <v>565</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -10219,7 +10242,7 @@
         <v>566</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -10227,7 +10250,7 @@
         <v>567</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -10235,7 +10258,7 @@
         <v>568</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -10243,7 +10266,7 @@
         <v>569</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -10251,7 +10274,7 @@
         <v>570</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -10259,7 +10282,7 @@
         <v>571</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -10267,7 +10290,7 @@
         <v>572</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -10275,7 +10298,7 @@
         <v>573</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -10283,7 +10306,7 @@
         <v>574</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -10291,7 +10314,7 @@
         <v>575</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -10299,7 +10322,7 @@
         <v>576</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -10307,7 +10330,7 @@
         <v>577</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -10315,7 +10338,7 @@
         <v>578</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -10323,7 +10346,7 @@
         <v>579</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -10331,7 +10354,7 @@
         <v>580</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -10339,7 +10362,7 @@
         <v>581</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -10347,7 +10370,7 @@
         <v>582</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -10355,7 +10378,7 @@
         <v>583</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -10363,7 +10386,7 @@
         <v>584</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -10371,7 +10394,7 @@
         <v>585</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -10379,7 +10402,7 @@
         <v>586</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -10387,7 +10410,7 @@
         <v>587</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -10395,7 +10418,7 @@
         <v>588</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -10403,7 +10426,7 @@
         <v>589</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -10411,7 +10434,7 @@
         <v>590</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -10419,7 +10442,7 @@
         <v>591</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -10427,7 +10450,7 @@
         <v>592</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -10435,7 +10458,7 @@
         <v>593</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -10443,7 +10466,7 @@
         <v>594</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -10451,7 +10474,7 @@
         <v>595</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -10459,7 +10482,7 @@
         <v>596</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -10467,7 +10490,7 @@
         <v>597</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -10475,7 +10498,7 @@
         <v>598</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -10483,7 +10506,7 @@
         <v>599</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -10491,7 +10514,7 @@
         <v>600</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -10499,7 +10522,7 @@
         <v>601</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -10507,7 +10530,7 @@
         <v>602</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -10515,7 +10538,7 @@
         <v>603</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -10523,7 +10546,7 @@
         <v>604</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -10531,7 +10554,7 @@
         <v>605</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -10539,7 +10562,7 @@
         <v>606</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -10547,7 +10570,7 @@
         <v>607</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -10555,7 +10578,7 @@
         <v>608</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -10563,7 +10586,7 @@
         <v>609</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -10571,7 +10594,7 @@
         <v>610</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -10579,7 +10602,7 @@
         <v>611</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -10587,7 +10610,7 @@
         <v>612</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -10595,7 +10618,7 @@
         <v>613</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -10603,7 +10626,7 @@
         <v>614</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -10611,7 +10634,7 @@
         <v>615</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -10619,7 +10642,7 @@
         <v>616</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -10627,7 +10650,7 @@
         <v>617</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -10635,7 +10658,7 @@
         <v>618</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -10643,7 +10666,7 @@
         <v>619</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -10651,7 +10674,7 @@
         <v>620</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -10659,7 +10682,7 @@
         <v>621</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -10667,7 +10690,7 @@
         <v>622</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -10675,7 +10698,7 @@
         <v>623</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -10683,7 +10706,7 @@
         <v>624</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -10691,7 +10714,7 @@
         <v>625</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -10699,7 +10722,7 @@
         <v>626</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -10707,7 +10730,7 @@
         <v>627</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -10715,7 +10738,7 @@
         <v>628</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -10723,7 +10746,7 @@
         <v>629</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -10731,7 +10754,7 @@
         <v>630</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -10739,7 +10762,7 @@
         <v>631</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -10747,7 +10770,7 @@
         <v>632</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -10755,7 +10778,7 @@
         <v>633</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -10763,7 +10786,7 @@
         <v>634</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -10771,7 +10794,7 @@
         <v>635</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -10779,7 +10802,7 @@
         <v>636</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -10787,7 +10810,7 @@
         <v>637</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -10795,7 +10818,7 @@
         <v>638</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -10803,7 +10826,7 @@
         <v>639</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -10811,2431 +10834,2431 @@
         <v>640</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>641</v>
+        <v>1914</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
-        <v>714</v>
+        <v>1915</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B847" s="9" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B848" s="9" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" s="7" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B849" s="9" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" s="8" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B850" s="9" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" s="8" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B851" s="9" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" s="8" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B852" s="9" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" s="8" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B853" s="9" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" s="8" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B854" s="9" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" s="8" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B855" s="9" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" s="8" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B856" s="9" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" s="6" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B857" s="9" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" s="8" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B858" s="9" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" s="8" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" s="8" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" s="8" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" s="8" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B862" s="9" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" s="8" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B863" s="9" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
@@ -13243,7 +13266,7 @@
         <v>254</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
@@ -13251,7 +13274,7 @@
         <v>255</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
@@ -13259,7 +13282,7 @@
         <v>256</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
@@ -13267,7 +13290,7 @@
         <v>257</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
@@ -13275,7 +13298,7 @@
         <v>258</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
@@ -13283,7 +13306,7 @@
         <v>259</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
@@ -13291,7 +13314,7 @@
         <v>260</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
@@ -13299,7 +13322,7 @@
         <v>261</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
@@ -13307,7 +13330,7 @@
         <v>262</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
@@ -13315,7 +13338,7 @@
         <v>263</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
@@ -13323,7 +13346,7 @@
         <v>264</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
@@ -13331,7 +13354,7 @@
         <v>265</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
@@ -13339,7 +13362,7 @@
         <v>266</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
@@ -13347,7 +13370,7 @@
         <v>267</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
@@ -13355,7 +13378,7 @@
         <v>268</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
@@ -13363,7 +13386,7 @@
         <v>269</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
@@ -13371,7 +13394,7 @@
         <v>270</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
@@ -13379,7 +13402,7 @@
         <v>271</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
@@ -13387,7 +13410,7 @@
         <v>272</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
@@ -13395,7 +13418,7 @@
         <v>273</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
@@ -13403,7 +13426,7 @@
         <v>274</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
@@ -13411,7 +13434,7 @@
         <v>275</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
@@ -13419,7 +13442,7 @@
         <v>276</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
@@ -13427,7 +13450,7 @@
         <v>277</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
@@ -13435,7 +13458,7 @@
         <v>278</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
@@ -13443,7 +13466,7 @@
         <v>279</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
@@ -13451,7 +13474,7 @@
         <v>280</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
@@ -13459,7 +13482,7 @@
         <v>281</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
@@ -13467,7 +13490,7 @@
         <v>282</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
@@ -13475,7 +13498,7 @@
         <v>283</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
@@ -13483,7 +13506,7 @@
         <v>284</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -13491,7 +13514,7 @@
         <v>285</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
@@ -13499,7 +13522,7 @@
         <v>286</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
@@ -13507,7 +13530,7 @@
         <v>287</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
@@ -13515,7 +13538,7 @@
         <v>288</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
@@ -13523,7 +13546,7 @@
         <v>289</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
@@ -13531,7 +13554,7 @@
         <v>290</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
@@ -13539,7 +13562,7 @@
         <v>291</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
@@ -13547,7 +13570,7 @@
         <v>292</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
@@ -13555,7 +13578,7 @@
         <v>293</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
@@ -13563,7 +13586,7 @@
         <v>294</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
@@ -13571,7 +13594,7 @@
         <v>295</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
@@ -13579,7 +13602,7 @@
         <v>296</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
@@ -13587,7 +13610,7 @@
         <v>297</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
@@ -13595,7 +13618,7 @@
         <v>298</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
@@ -13603,7 +13626,7 @@
         <v>299</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
@@ -13611,7 +13634,7 @@
         <v>300</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -13619,7 +13642,7 @@
         <v>301</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
@@ -13627,7 +13650,7 @@
         <v>322</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
@@ -13635,7 +13658,7 @@
         <v>323</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
@@ -13643,7 +13666,7 @@
         <v>324</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
@@ -13651,7 +13674,7 @@
         <v>325</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
@@ -13659,7 +13682,7 @@
         <v>326</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
@@ -13667,7 +13690,7 @@
         <v>327</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
@@ -13675,7 +13698,7 @@
         <v>328</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
@@ -13683,7 +13706,7 @@
         <v>329</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
@@ -13691,7 +13714,7 @@
         <v>330</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
@@ -13699,7 +13722,7 @@
         <v>331</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
@@ -13707,7 +13730,7 @@
         <v>332</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
@@ -13715,7 +13738,7 @@
         <v>333</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
@@ -13723,7 +13746,7 @@
         <v>302</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
@@ -13731,7 +13754,7 @@
         <v>303</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
@@ -13739,7 +13762,7 @@
         <v>304</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
@@ -13747,7 +13770,7 @@
         <v>305</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
@@ -13755,7 +13778,7 @@
         <v>306</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
@@ -13763,7 +13786,7 @@
         <v>307</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -13771,7 +13794,7 @@
         <v>308</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
@@ -13779,7 +13802,7 @@
         <v>309</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
@@ -13787,7 +13810,7 @@
         <v>310</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
@@ -13795,7 +13818,7 @@
         <v>311</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
@@ -13803,7 +13826,7 @@
         <v>312</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
@@ -13811,7 +13834,7 @@
         <v>313</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
@@ -13819,7 +13842,7 @@
         <v>314</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
@@ -13827,7 +13850,7 @@
         <v>315</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
@@ -13835,7 +13858,7 @@
         <v>316</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -13843,7 +13866,7 @@
         <v>317</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
@@ -13851,7 +13874,7 @@
         <v>318</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
@@ -13859,7 +13882,7 @@
         <v>319</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
@@ -13867,7 +13890,7 @@
         <v>320</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -13875,110 +13898,134 @@
         <v>321</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A944" s="11" t="s">
+      <c r="A944" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="B944" s="3" t="s">
+      <c r="B946" s="3" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A945" s="11" t="s">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="B945" s="3" t="s">
+      <c r="B947" s="3" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A946" s="11" t="s">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948" s="3" t="s">
         <v>1888</v>
       </c>
-      <c r="B946" s="3" t="s">
+      <c r="B948" s="3" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A947" s="11" t="s">
+      <c r="G948" s="10"/>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949" s="3" t="s">
         <v>1889</v>
       </c>
-      <c r="B947" s="3" t="s">
+      <c r="B949" s="3" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A948" s="11" t="s">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950" s="3" t="s">
         <v>1890</v>
       </c>
-      <c r="B948" s="3" t="s">
+      <c r="B950" s="3" t="s">
         <v>1902</v>
       </c>
-      <c r="G948" s="10"/>
-    </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A949" s="11" t="s">
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951" s="3" t="s">
         <v>1891</v>
       </c>
-      <c r="B949" s="3" t="s">
+      <c r="B951" s="3" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A950" s="11" t="s">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952" s="3" t="s">
         <v>1892</v>
       </c>
-      <c r="B950" s="3" t="s">
+      <c r="B952" s="3" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A951" s="11" t="s">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953" s="3" t="s">
         <v>1893</v>
       </c>
-      <c r="B951" s="3" t="s">
+      <c r="B953" s="3" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A952" s="11" t="s">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954" s="3" t="s">
         <v>1894</v>
       </c>
-      <c r="B952" s="3" t="s">
+      <c r="B954" s="3" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A953" s="11" t="s">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="B953" s="3" t="s">
+      <c r="B955" s="3" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A954" s="11" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B954" s="3" t="s">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A956" s="3" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A955" s="11" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B955" s="3" t="s">
+      <c r="B956" s="3" t="s">
         <v>1909</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A957" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A958" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>1913</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A955">
-    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A958">
+    <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/part.xlsx
+++ b/part.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\Hyundai Motor and Kia\업무\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\Hyundai Motor and Kia\업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959674B2-4D07-47D2-BB25-FFAF1B73F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB369660-40C5-414C-A9C1-349DF29C7389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F99FC48C-34FE-434E-80D7-4E5AAE265EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$849:$B$855</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="2077">
   <si>
     <t>자재번호</t>
   </si>
@@ -5865,6 +5866,493 @@
   </si>
   <si>
     <t>11703-05101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14720-13006B</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>17993-19000</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>17993-13000</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>17303-35010</t>
+  </si>
+  <si>
+    <t>17308-79110</t>
+  </si>
+  <si>
+    <t>14720-15006B</t>
+  </si>
+  <si>
+    <t>14720-28003</t>
+  </si>
+  <si>
+    <t>14913-05000</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>14833-14141</t>
+  </si>
+  <si>
+    <t>17313-35000</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>17993-16000</t>
+  </si>
+  <si>
+    <t>14813-20239</t>
+  </si>
+  <si>
+    <t>17993-35000</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>21811-7M500</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>21813-7K600</t>
+  </si>
+  <si>
+    <t>21825-7D100</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>21825-7F300</t>
+  </si>
+  <si>
+    <t>21890-8D000</t>
+  </si>
+  <si>
+    <t>21895-8K000</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>28681-81001</t>
+  </si>
+  <si>
+    <t>28683-81001</t>
+  </si>
+  <si>
+    <t>28760-7P800</t>
+  </si>
+  <si>
+    <t>32710-8R001</t>
+  </si>
+  <si>
+    <t>43613-7R000</t>
+  </si>
+  <si>
+    <t>43613-7R020</t>
+  </si>
+  <si>
+    <t>43613-7R040</t>
+  </si>
+  <si>
+    <t>43711-8D001</t>
+  </si>
+  <si>
+    <t>52986-7F641</t>
+  </si>
+  <si>
+    <t>54324-67001</t>
+  </si>
+  <si>
+    <t>54325-67001</t>
+  </si>
+  <si>
+    <t>54753-7F300</t>
+  </si>
+  <si>
+    <t>55358-7P000</t>
+  </si>
+  <si>
+    <t>55359-7D000</t>
+  </si>
+  <si>
+    <t>55369-7R000</t>
+  </si>
+  <si>
+    <t>55553-7D500</t>
+  </si>
+  <si>
+    <t>55562-7D000</t>
+  </si>
+  <si>
+    <t>55877-7H550</t>
+  </si>
+  <si>
+    <t>55993-7N010</t>
+  </si>
+  <si>
+    <t>56334-69000</t>
+  </si>
+  <si>
+    <t>56335-8A100</t>
+  </si>
+  <si>
+    <t>56414-7R001</t>
+  </si>
+  <si>
+    <t>57580-8D101</t>
+  </si>
+  <si>
+    <t>57580-8D201</t>
+  </si>
+  <si>
+    <t>57681-67000</t>
+  </si>
+  <si>
+    <t>57682-8K180</t>
+  </si>
+  <si>
+    <t>57691-69001</t>
+  </si>
+  <si>
+    <t>58501-57001</t>
+  </si>
+  <si>
+    <t>58806-7X800</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>58810-7X700</t>
+  </si>
+  <si>
+    <t>58810-7X800</t>
+  </si>
+  <si>
+    <t>58812-7X800</t>
+  </si>
+  <si>
+    <t>58912-7X900</t>
+  </si>
+  <si>
+    <t>58912-7X930</t>
+  </si>
+  <si>
+    <t>58914-7X900</t>
+  </si>
+  <si>
+    <t>58914-7X910</t>
+  </si>
+  <si>
+    <t>58914-7X920</t>
+  </si>
+  <si>
+    <t>58916-7X900</t>
+  </si>
+  <si>
+    <t>58922-7X920</t>
+  </si>
+  <si>
+    <t>58932-7X900</t>
+  </si>
+  <si>
+    <t>58932-7X920</t>
+  </si>
+  <si>
+    <t>58942-7N000</t>
+  </si>
+  <si>
+    <t>58942-88500</t>
+  </si>
+  <si>
+    <t>58952-7X910</t>
+  </si>
+  <si>
+    <t>58952-7X920</t>
+  </si>
+  <si>
+    <t>58953-7X950</t>
+  </si>
+  <si>
+    <t>58954-7X920</t>
+  </si>
+  <si>
+    <t>58954-7X930</t>
+  </si>
+  <si>
+    <t>64401-8C000</t>
+  </si>
+  <si>
+    <t>64403-8C000</t>
+  </si>
+  <si>
+    <t>81199-38000</t>
+  </si>
+  <si>
+    <t>81919-11400</t>
+  </si>
+  <si>
+    <t>82412-23000</t>
+  </si>
+  <si>
+    <t>82740-7A000</t>
+  </si>
+  <si>
+    <t>82777-7A000</t>
+  </si>
+  <si>
+    <t>91191-71000</t>
+  </si>
+  <si>
+    <t>91421-4A000</t>
+  </si>
+  <si>
+    <t>91421-5H000</t>
+  </si>
+  <si>
+    <t>91590-6A001</t>
+  </si>
+  <si>
+    <t>91590-6A011</t>
+  </si>
+  <si>
+    <t>91590-6A021</t>
+  </si>
+  <si>
+    <t>91590-6A031</t>
+  </si>
+  <si>
+    <t>91590-6A041</t>
+  </si>
+  <si>
+    <t>91590-6A051</t>
+  </si>
+  <si>
+    <t>91590-6A061</t>
+  </si>
+  <si>
+    <t>91590-6A071</t>
+  </si>
+  <si>
+    <t>91590-6A081</t>
+  </si>
+  <si>
+    <t>91590-6A121</t>
+  </si>
+  <si>
+    <t>91590-6A131</t>
+  </si>
+  <si>
+    <t>91596-7S300</t>
+  </si>
+  <si>
+    <t>91596-7S350</t>
+  </si>
+  <si>
+    <t>93283-73001</t>
+  </si>
+  <si>
+    <t>94471-8D000</t>
+  </si>
+  <si>
+    <t>95225-7A500</t>
+  </si>
+  <si>
+    <t>96810-7C000</t>
+  </si>
+  <si>
+    <t>99187-8K350</t>
+  </si>
+  <si>
+    <t>99187-8K400</t>
+  </si>
+  <si>
+    <t>BB, BL</t>
+  </si>
+  <si>
+    <t>BS, BT, CP</t>
+  </si>
+  <si>
+    <t>BB, CQ</t>
+  </si>
+  <si>
+    <t>BB, CP</t>
+  </si>
+  <si>
+    <t>BB, BC, BT</t>
+  </si>
+  <si>
+    <t>BM, CL</t>
+  </si>
+  <si>
+    <t>BB, BC, BL</t>
+  </si>
+  <si>
+    <t>BB, BC</t>
+  </si>
+  <si>
+    <t>BB, BC, BM</t>
+  </si>
+  <si>
+    <t>CN, CQ</t>
+  </si>
+  <si>
+    <t>BM, BS, BT</t>
+  </si>
+  <si>
+    <t>BH, BS, BT</t>
+  </si>
+  <si>
+    <t>BH, BS, CP</t>
+  </si>
+  <si>
+    <t>BB, BC, BS, BT</t>
+  </si>
+  <si>
+    <t>CK, CN</t>
+  </si>
+  <si>
+    <t>BH, BM, BS, CG</t>
+  </si>
+  <si>
+    <t>BB, BC, BS</t>
+  </si>
+  <si>
+    <t>BH, BM, BS, BT, CQ</t>
+  </si>
+  <si>
+    <t>BB, BC, BH, BS</t>
+  </si>
+  <si>
+    <t>BH, BM, BS</t>
+  </si>
+  <si>
+    <t>BH, BM, CG</t>
+  </si>
+  <si>
+    <t>AG, BG, BH, BS, BT, CE</t>
+  </si>
+  <si>
+    <t>AG, BH, BS</t>
+  </si>
+  <si>
+    <t>BM, BS</t>
+  </si>
+  <si>
+    <t>BB, BC, BH, BM, BS</t>
+  </si>
+  <si>
+    <t>BM, BS, CM, CN</t>
+  </si>
+  <si>
+    <t>BM, BS, BT, CE, CM, CN, CQ, CR</t>
+  </si>
+  <si>
+    <t>BS, CG</t>
+  </si>
+  <si>
+    <t>CE, CL</t>
+  </si>
+  <si>
+    <t>BS, CR, T2</t>
+  </si>
+  <si>
+    <t>BM, BS, CB, CE, CG, CK, CL</t>
+  </si>
+  <si>
+    <t>BG, BH, BS, BT, CL, CN, CP, CQ, CR</t>
+  </si>
+  <si>
+    <t>BB, BS, BT, CL, CP</t>
+  </si>
+  <si>
+    <t>BB, BS, BT, CP</t>
+  </si>
+  <si>
+    <t>BS, CL, CN, CP</t>
+  </si>
+  <si>
+    <t>BB, BS, CE, CG, CL, CN, CP</t>
+  </si>
+  <si>
+    <t>BS, BT, CG, CL, CN, CP, CR</t>
+  </si>
+  <si>
+    <t>BB, BS, BT, CB, CE, CO, CP, CQ, CR</t>
+  </si>
+  <si>
+    <t>BB, BH, BT, CG, CN, CP, CR</t>
+  </si>
+  <si>
+    <t>CB, CG, CP, CR</t>
+  </si>
+  <si>
+    <t>BH, BS</t>
+  </si>
+  <si>
+    <t>BH, CG, CP</t>
+  </si>
+  <si>
+    <t>BB, BH, BS, BT, CE, CN, CP, CR</t>
+  </si>
+  <si>
+    <t>BB, BC, BS, BT, CE, CN, CO, CP, CR</t>
+  </si>
+  <si>
+    <t>BB, CO</t>
+  </si>
+  <si>
+    <t>BB, CE, CG, CO, CR</t>
+  </si>
+  <si>
+    <t>BS, BT, CR</t>
+  </si>
+  <si>
+    <t>12414-04203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12204-06251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시1 6단 1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시1 6단 2열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5905,7 +6393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5933,6 +6421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5966,7 +6460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5999,6 +6493,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6345,11 +6842,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD56D84-AAB8-4F28-8C6E-523199CE1743}">
-  <dimension ref="A1:G958"/>
+  <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="N632" sqref="N632"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14022,9 +14517,25 @@
         <v>1913</v>
       </c>
     </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A959" s="11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B959" s="11" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A960" s="11" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B960" s="11" t="s">
+        <v>2076</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A958">
+  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A960">
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14032,4 +14543,1660 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 본 문서는 현대자동차·기아의 정보자산으로 귀사와의 비밀유지계약 및 제반법률에 따라 법적 보호를 받습니다.</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BEFAF9-5EF7-4431-AC05-9AB822012ED5}">
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J25:J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1969</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1989</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2001</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H60" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H64" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H69" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H70" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>300</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H71" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H73" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H76" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H77" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H80" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H82" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H83" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/part.xlsx
+++ b/part.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\Hyundai Motor and Kia\업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7470491\Hyundai Motor and Kia\업무\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB369660-40C5-414C-A9C1-349DF29C7389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681183C4-79AB-4652-B674-66AA474A756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F99FC48C-34FE-434E-80D7-4E5AAE265EBA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="2079">
   <si>
     <t>자재번호</t>
   </si>
@@ -6353,6 +6353,14 @@
   </si>
   <si>
     <t>임시1 6단 2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345-67890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6431,7 +6439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6454,13 +6462,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6495,6 +6514,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6842,9 +6864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD56D84-AAB8-4F28-8C6E-523199CE1743}">
-  <dimension ref="A1:G960"/>
+  <dimension ref="A1:G961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
+      <selection activeCell="A961" sqref="A961"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14533,9 +14557,17 @@
         <v>2076</v>
       </c>
     </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" s="12" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B961" s="5" t="s">
+        <v>2078</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A960">
+  <conditionalFormatting sqref="A864:B943 A1 A2:B846 A847:A848 A944:A961">
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
